--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1301,11 +1301,21 @@
       <c r="A8" s="13">
         <v>6.0</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5.0</v>
+      </c>
       <c r="G8" s="14">
         <v>4000.0</v>
       </c>
@@ -1325,11 +1335,21 @@
       <c r="A9" s="13">
         <v>7.0</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5.0</v>
+      </c>
       <c r="G9" s="14">
         <v>5000.0</v>
       </c>
@@ -1349,11 +1369,21 @@
       <c r="A10" s="13">
         <v>8.0</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>5.0</v>
+      </c>
       <c r="G10" s="14">
         <v>6000.0</v>
       </c>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -289,6 +289,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -567,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -576,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -585,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -594,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -603,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -648,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -657,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -666,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -675,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -684,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -693,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -701,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +769,7 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="15">
         <v>10.0</v>
@@ -781,10 +784,10 @@
         <v>1000.0</v>
       </c>
       <c r="I2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -798,13 +801,13 @@
         <v>4.0</v>
       </c>
       <c r="D3" s="15">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" s="15">
         <v>9.0</v>
       </c>
       <c r="F3" s="15">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" s="15">
         <v>12.0</v>
@@ -813,10 +816,10 @@
         <v>2000.0</v>
       </c>
       <c r="I3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="J3" s="2">
         <v>2.0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -830,13 +833,13 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="15">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" s="15">
         <v>8.0</v>
       </c>
       <c r="F4" s="15">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" s="15">
         <v>14.0</v>
@@ -845,10 +848,10 @@
         <v>3000.0</v>
       </c>
       <c r="I4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -862,109 +865,149 @@
         <v>5.0</v>
       </c>
       <c r="D5" s="15">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" s="15">
         <v>7.0</v>
       </c>
       <c r="F5" s="15">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" s="15">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="14">
         <v>4000.0</v>
       </c>
       <c r="I5" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="15">
+        <v>2800.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>18.0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13">
@@ -1158,31 +1201,31 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="14">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="14">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="14">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="14">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="14">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" s="14">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H4" s="14">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I4" s="14">
         <v>2500.0</v>
       </c>
       <c r="J4" s="14">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -1194,31 +1237,31 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" s="14">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H5" s="14">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I5" s="14">
         <v>3500.0</v>
       </c>
       <c r="J5" s="14">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1245,16 +1288,16 @@
         <v>3.0</v>
       </c>
       <c r="G6" s="14">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H6" s="14">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I6" s="14">
         <v>4500.0</v>
       </c>
       <c r="J6" s="14">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1281,16 +1324,16 @@
         <v>3.0</v>
       </c>
       <c r="G7" s="14">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H7" s="14">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I7" s="14">
         <v>6000.0</v>
       </c>
       <c r="J7" s="14">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1302,29 +1345,29 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G8" s="14">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="H8" s="14">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1336,29 +1379,29 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G9" s="14">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="H9" s="14">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1385,14 +1428,14 @@
         <v>5.0</v>
       </c>
       <c r="G10" s="14">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="H10" s="14">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1403,20 +1446,30 @@
       <c r="A11" s="13">
         <v>9.0</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5.0</v>
+      </c>
       <c r="G11" s="14">
-        <v>7000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="H11" s="14">
-        <v>7000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14">
-        <v>7000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1869,7 +1922,7 @@
         <v>4.0</v>
       </c>
       <c r="D4" s="2">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +1936,7 @@
         <v>4.0</v>
       </c>
       <c r="D5" s="2">
-        <v>3000.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="6">
@@ -1897,7 +1950,7 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="2">
-        <v>5000.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="7">
@@ -1911,7 +1964,7 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="2">
-        <v>7000.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="8">
@@ -1925,7 +1978,7 @@
         <v>6.0</v>
       </c>
       <c r="D8" s="2">
-        <v>9000.0</v>
+        <v>7000.0</v>
       </c>
     </row>
     <row r="9">
@@ -1939,7 +1992,7 @@
         <v>6.0</v>
       </c>
       <c r="D9" s="2">
-        <v>11000.0</v>
+        <v>9000.0</v>
       </c>
     </row>
     <row r="10">
@@ -2086,7 +2139,7 @@
         <v>1000.0</v>
       </c>
       <c r="L2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2112,7 +2165,7 @@
         <v>7.0</v>
       </c>
       <c r="H3" s="16">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I3" s="16">
         <v>4.0</v>
@@ -2124,7 +2177,7 @@
         <v>2000.0</v>
       </c>
       <c r="L3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2150,7 +2203,7 @@
         <v>10.0</v>
       </c>
       <c r="H4" s="16">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="I4" s="16">
         <v>8.0</v>
@@ -2162,127 +2215,196 @@
         <v>3000.0</v>
       </c>
       <c r="L4" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
+      <c r="B5" s="15">
+        <v>2600.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="15">
+        <v>2800.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>21.0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>21.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>15.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>25.0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">
@@ -2434,10 +2556,10 @@
         <v>70.0</v>
       </c>
       <c r="K2" s="14">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="L2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2472,10 +2594,10 @@
         <v>70.0</v>
       </c>
       <c r="K3" s="14">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2492,16 +2614,16 @@
         <v>12.0</v>
       </c>
       <c r="E4" s="15">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" s="15">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" s="15">
         <v>10.0</v>
       </c>
       <c r="H4" s="16">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="16">
         <v>15.0</v>
@@ -2510,130 +2632,199 @@
         <v>75.0</v>
       </c>
       <c r="K4" s="14">
-        <v>3000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="L4" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
+      <c r="B5" s="15">
+        <v>2600.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>80.0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="15">
+        <v>2800.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>18.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>22.0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>85.0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2500.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>23.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>26.0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>90.0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3000.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">
@@ -2764,10 +2955,10 @@
         <v>4.0</v>
       </c>
       <c r="E2" s="15">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" s="15">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" s="15">
         <v>5.0</v>
@@ -2782,7 +2973,7 @@
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2802,22 +2993,22 @@
         <v>7.0</v>
       </c>
       <c r="F3" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" s="15">
         <v>7.0</v>
       </c>
       <c r="H3" s="16">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="I3" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J3" s="14">
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2831,28 +3022,28 @@
         <v>4.0</v>
       </c>
       <c r="D4" s="15">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" s="16">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="I4" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J4" s="14">
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2863,124 +3054,171 @@
         <v>2600.0</v>
       </c>
       <c r="C5" s="15">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="15">
         <v>7.0</v>
       </c>
       <c r="E5" s="15">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" s="15">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" s="15">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H5" s="16">
-        <v>40.0</v>
+        <v>18.0</v>
       </c>
       <c r="I5" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="J5" s="14"/>
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="15">
+        <v>2800.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>30.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3108,28 +3346,28 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="15">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" s="15">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" s="15">
         <v>10.0</v>
       </c>
       <c r="H2" s="16">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="I2" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" s="14">
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3143,28 +3381,28 @@
         <v>4.0</v>
       </c>
       <c r="D3" s="15">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" s="15">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" s="15">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G3" s="15">
         <v>15.0</v>
       </c>
       <c r="H3" s="16">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="I3" s="16">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="J3" s="14">
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3178,31 +3416,31 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="15">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" s="15">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" s="15">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" s="15">
         <v>18.0</v>
       </c>
       <c r="H4" s="16">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="I4" s="16">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J4" s="14">
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -3212,138 +3450,185 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="15">
         <v>6.0</v>
       </c>
-      <c r="D5" s="15">
-        <v>5.0</v>
-      </c>
       <c r="E5" s="15">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="15">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" s="15">
         <v>20.0</v>
       </c>
       <c r="H5" s="16">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="I5" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>35.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="B7" s="15">
+        <v>3200.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3494,7 +3779,7 @@
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3511,10 +3796,10 @@
         <v>11.0</v>
       </c>
       <c r="E3" s="15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" s="15">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G3" s="15">
         <v>12.0</v>
@@ -3529,7 +3814,7 @@
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3564,7 +3849,7 @@
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3575,7 +3860,7 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="15">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="15">
         <v>13.0</v>
@@ -3595,104 +3880,151 @@
       <c r="I5" s="16">
         <v>70.0</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>18.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>300.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>75.0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="15">
+        <v>3200.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>350.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>80.0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3847,7 +4179,7 @@
         <v>1000.0</v>
       </c>
       <c r="L2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3885,7 +4217,7 @@
         <v>2000.0</v>
       </c>
       <c r="L3" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3923,127 +4255,196 @@
         <v>3000.0</v>
       </c>
       <c r="L4" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="14"/>
+      <c r="B5" s="15">
+        <v>2600.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>400.0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="15">
+        <v>2800.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>18.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>500.0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5000.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>600.0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>6000.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Level_Name</t>
   </si>
@@ -49,6 +49,12 @@
     <t>Level_Train_EngineTier</t>
   </si>
   <si>
+    <t>Level_train_MaxTrain</t>
+  </si>
+  <si>
+    <t>Level_Train_MaxMercenary</t>
+  </si>
+  <si>
     <t>Level_Train_MaxSpeed</t>
   </si>
   <si>
@@ -100,6 +106,12 @@
     <t>Cost_Level_Train_EngineTier</t>
   </si>
   <si>
+    <t>Cost_Level_Train_MaxTrain</t>
+  </si>
+  <si>
+    <t>Cost_Level_Train_MaxMercenary</t>
+  </si>
+  <si>
     <t>Cost_Level_Train_MaxSpeed</t>
   </si>
   <si>
@@ -110,12 +122,6 @@
   </si>
   <si>
     <t>Num</t>
-  </si>
-  <si>
-    <t>Max_Mercenary</t>
-  </si>
-  <si>
-    <t>Max_Train</t>
   </si>
   <si>
     <t>Cost_Add_Train</t>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -269,12 +275,15 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -620,20 +629,20 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>10.0</v>
+      <c r="B8" s="2">
+        <v>7.0</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
-        <v>5.0</v>
+      <c r="B9" s="2">
+        <v>7.0</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -647,63 +656,79 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="B11" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D12" s="11"/>
+      <c r="B12" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="B13" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="11"/>
+      <c r="B14" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="B15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
         <v>5.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="11">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
         <v>5.0</v>
       </c>
     </row>
@@ -728,65 +753,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>42</v>
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>4.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>2.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>10.0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>14.0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <v>1000.0</v>
       </c>
       <c r="I2" s="2">
         <v>1.0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="16">
         <v>3.0</v>
       </c>
     </row>
@@ -794,31 +819,31 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>4.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>3.0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>9.0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>13.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>2000.0</v>
       </c>
       <c r="I3" s="2">
         <v>2.0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -826,31 +851,31 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="16">
         <v>4.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>8.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>12.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>3000.0</v>
       </c>
       <c r="I4" s="2">
         <v>4.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -858,31 +883,31 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2600.0</v>
       </c>
-      <c r="C5" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>4.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>7.0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>11.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>4000.0</v>
       </c>
       <c r="I5" s="2">
         <v>6.0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="16">
         <v>5.0</v>
       </c>
     </row>
@@ -890,25 +915,25 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>6.0</v>
       </c>
-      <c r="D6" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="16">
         <v>6.0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <v>10.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>18.0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>5000.0</v>
       </c>
       <c r="I6" s="2">
@@ -922,25 +947,25 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>6.0</v>
       </c>
-      <c r="D7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="16">
         <v>9.0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>20.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="18">
         <v>6000.0</v>
       </c>
       <c r="I7" s="2">
@@ -954,60 +979,60 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13">
@@ -1090,509 +1115,564 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14">
         <v>1.0</v>
       </c>
-      <c r="C2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="H2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="B3" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="G3" s="15">
         <v>1000.0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>1000.0</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="15">
         <v>1500.0</v>
       </c>
-      <c r="J3" s="14">
+      <c r="L3" s="15">
         <v>1000.0</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>2.0</v>
       </c>
-      <c r="B4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="B4" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="G4" s="15">
         <v>2000.0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>2000.0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="K4" s="15">
         <v>2500.0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="L4" s="15">
         <v>2000.0</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>3.0</v>
       </c>
-      <c r="B5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="B5" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="G5" s="15">
         <v>3000.0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>3000.0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="K5" s="15">
         <v>3500.0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="L5" s="15">
         <v>3000.0</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>4.0</v>
       </c>
-      <c r="B6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="B6" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="G6" s="15">
         <v>4000.0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>4000.0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>4000.0</v>
+      </c>
+      <c r="K6" s="15">
         <v>4500.0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="L6" s="15">
         <v>4000.0</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="A7" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="G7" s="15">
         <v>5000.0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>5000.0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="K7" s="15">
         <v>6000.0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="L7" s="15">
         <v>5000.0</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>6.0</v>
       </c>
-      <c r="B8" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="B8" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="G8" s="15">
         <v>6000.0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>6000.0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
+      <c r="I8" s="15">
         <v>6000.0</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="J8" s="15">
+        <v>6000.0</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15">
+        <v>6000.0</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>7.0</v>
       </c>
-      <c r="B9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="B9" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="G9" s="15">
         <v>7000.0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>7000.0</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14">
+      <c r="I9" s="15">
         <v>7000.0</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="J9" s="15">
+        <v>7000.0</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15">
+        <v>7000.0</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>8.0</v>
       </c>
-      <c r="B10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="B10" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="G10" s="15">
         <v>8000.0</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>8000.0</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14">
+      <c r="I10" s="15">
         <v>8000.0</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="J10" s="15">
+        <v>8000.0</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15">
+        <v>8000.0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>9.0</v>
       </c>
-      <c r="B11" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="B11" s="15">
+        <v>10000.0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10000.0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10000.0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10000.0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10000.0</v>
+      </c>
+      <c r="G11" s="15">
         <v>9000.0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>9000.0</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14">
+      <c r="I11" s="15">
         <v>9000.0</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="J11" s="15">
+        <v>9000.0</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15">
+        <v>9000.0</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>10.0</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>11.0</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>12.0</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>13.0</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>14.0</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>15.0</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>16.0</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1603,14 +1683,14 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>17.0</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1621,14 +1701,14 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>18.0</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1639,14 +1719,14 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>19.0</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1657,14 +1737,14 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="13">
+      <c r="A22" s="14">
         <v>20.0</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1675,14 +1755,14 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="13">
+      <c r="A23" s="14">
         <v>21.0</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1693,14 +1773,14 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="13">
+      <c r="A24" s="14">
         <v>22.0</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1711,14 +1791,14 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="13">
+      <c r="A25" s="14">
         <v>23.0</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1729,14 +1809,14 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="13">
+      <c r="A26" s="14">
         <v>24.0</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1747,14 +1827,14 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>25.0</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1765,14 +1845,14 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="13">
+      <c r="A28" s="14">
         <v>26.0</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1783,14 +1863,14 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>27.0</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1801,14 +1881,14 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="13">
+      <c r="A30" s="14">
         <v>28.0</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1819,14 +1899,14 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="13">
+      <c r="A31" s="14">
         <v>29.0</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1837,14 +1917,14 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="13">
+      <c r="A32" s="14">
         <v>30.0</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1871,16 +1951,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1888,12 +1962,6 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1902,12 +1970,6 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1916,12 +1978,6 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="2">
         <v>500.0</v>
       </c>
     </row>
@@ -1930,12 +1986,6 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="2">
         <v>1500.0</v>
       </c>
     </row>
@@ -1944,12 +1994,6 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="2">
         <v>3000.0</v>
       </c>
     </row>
@@ -1958,12 +2002,6 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="2">
         <v>5000.0</v>
       </c>
     </row>
@@ -1972,12 +2010,6 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="2">
         <v>7000.0</v>
       </c>
     </row>
@@ -1986,12 +2018,6 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="2">
         <v>9000.0</v>
       </c>
     </row>
@@ -2000,12 +2026,6 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D10" s="2">
         <v>9999999.0</v>
       </c>
     </row>
@@ -2014,12 +2034,6 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D11" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2028,12 +2042,6 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D12" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2068,74 +2076,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="C2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="17">
         <v>3.0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>2.0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="17">
         <v>10.0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>1000.0</v>
       </c>
       <c r="L2" s="2">
@@ -2146,34 +2154,34 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="C3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="16">
         <v>7.0</v>
       </c>
-      <c r="H3" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="H3" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="I3" s="17">
         <v>4.0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="17">
         <v>12.0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <v>2000.0</v>
       </c>
       <c r="L3" s="2">
@@ -2184,34 +2192,34 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="C4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="16">
         <v>10.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>7.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>8.0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>15.0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>3000.0</v>
       </c>
       <c r="L4" s="2">
@@ -2222,34 +2230,34 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2600.0</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="16">
         <v>13.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>9.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>12.0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="17">
         <v>18.0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="15">
         <v>4000.0</v>
       </c>
       <c r="L5" s="2">
@@ -2260,34 +2268,34 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="C6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="16">
         <v>17.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>12.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>16.0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="17">
         <v>21.0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <v>5000.0</v>
       </c>
       <c r="L6" s="2">
@@ -2298,34 +2306,34 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="C7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="16">
         <v>21.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>15.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>20.0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <v>25.0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>6000.0</v>
       </c>
       <c r="L7" s="2">
@@ -2336,75 +2344,75 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">
@@ -2488,74 +2496,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>3.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>10.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>10.0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>15.0</v>
       </c>
-      <c r="G2" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="G2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="17">
         <v>2.0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>10.0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="17">
         <v>70.0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>500.0</v>
       </c>
       <c r="L2" s="2">
@@ -2566,34 +2574,34 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>3.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>11.0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>10.0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>14.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>7.0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>2.0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>12.0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="17">
         <v>70.0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <v>1000.0</v>
       </c>
       <c r="L3" s="2">
@@ -2604,34 +2612,34 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>4.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>12.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>10.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>13.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>10.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>2.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>15.0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>75.0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>1500.0</v>
       </c>
       <c r="L4" s="2">
@@ -2642,34 +2650,34 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2600.0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>4.0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>13.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>9.0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>13.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>14.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>1.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>18.0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="17">
         <v>80.0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="15">
         <v>2000.0</v>
       </c>
       <c r="L5" s="2">
@@ -2680,34 +2688,34 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C6" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="16">
         <v>14.0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>9.0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <v>12.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>18.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>1.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>22.0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="17">
         <v>85.0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <v>2500.0</v>
       </c>
       <c r="L6" s="2">
@@ -2718,34 +2726,34 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="16">
         <v>15.0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>8.0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <v>12.0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>23.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>1.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>26.0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <v>90.0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>3000.0</v>
       </c>
       <c r="L7" s="2">
@@ -2756,75 +2764,75 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">
@@ -2908,68 +2916,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>42</v>
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>3.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>4.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>7.0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>10.0</v>
       </c>
-      <c r="G2" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="G2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="17">
         <v>10.0</v>
       </c>
-      <c r="I2" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="I2" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J2" s="15">
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
@@ -2980,31 +2988,31 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>3.0</v>
       </c>
-      <c r="D3" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="16">
         <v>7.0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>9.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>7.0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>13.0</v>
       </c>
-      <c r="I3" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J3" s="15">
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
@@ -3015,31 +3023,31 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>4.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>6.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>6.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>9.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>9.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>15.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>4.0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
@@ -3050,31 +3058,31 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2600.0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>4.0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>7.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>6.0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>8.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>11.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>18.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>4.0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <v>4000.0</v>
       </c>
       <c r="K5" s="2">
@@ -3085,31 +3093,31 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C6" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="16">
         <v>8.0</v>
       </c>
-      <c r="E6" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="16">
         <v>8.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>14.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>20.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>3.0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>5000.0</v>
       </c>
       <c r="K6" s="2">
@@ -3120,31 +3128,31 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="16">
         <v>9.0</v>
       </c>
-      <c r="E7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="16">
         <v>7.0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>17.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>30.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>3.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <v>6000.0</v>
       </c>
       <c r="K7" s="2">
@@ -3155,70 +3163,70 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3302,68 +3310,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>42</v>
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>4.0</v>
       </c>
-      <c r="D2" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="16">
         <v>9.0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>15.0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>6.0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="15">
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
@@ -3374,31 +3382,31 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>4.0</v>
       </c>
-      <c r="D3" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F3" s="16">
         <v>8.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>15.0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>20.0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>6.0</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
@@ -3409,226 +3417,226 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="16">
         <v>6.0</v>
       </c>
-      <c r="E4" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="16">
         <v>7.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>18.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>25.0</v>
       </c>
-      <c r="I4" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J4" s="15">
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
         <v>4.0</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C5" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>6.0</v>
       </c>
-      <c r="E5" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="16">
         <v>7.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>20.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>30.0</v>
       </c>
-      <c r="I5" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="15">
         <v>4000.0</v>
       </c>
       <c r="K5" s="2">
         <v>6.0</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>6.0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>7.0</v>
       </c>
-      <c r="E6" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="16">
         <v>6.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>25.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>35.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>4.0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>5000.0</v>
       </c>
       <c r="K6" s="2">
         <v>8.0</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3200.0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>6.0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>7.0</v>
       </c>
-      <c r="E7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="16">
         <v>6.0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>30.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>40.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>4.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <v>6000.0</v>
       </c>
       <c r="K7" s="2">
         <v>10.0</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3714,68 +3722,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>42</v>
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>4.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>10.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>9.0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>12.0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>100.0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>50.0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="15">
         <v>1000.0</v>
       </c>
       <c r="K2" s="2">
@@ -3786,31 +3794,31 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>4.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>11.0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>9.0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>11.0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>150.0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>55.0</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <v>2000.0</v>
       </c>
       <c r="K3" s="2">
@@ -3821,31 +3829,31 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="16">
         <v>12.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>8.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>11.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>200.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>60.0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <v>3000.0</v>
       </c>
       <c r="K4" s="2">
@@ -3856,31 +3864,31 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C5" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>13.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>8.0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <v>10.0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>15.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>250.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>70.0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <v>4000.0</v>
       </c>
       <c r="K5" s="2">
@@ -3891,31 +3899,31 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>6.0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>14.0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>7.0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <v>10.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>18.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>300.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>75.0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>5000.0</v>
       </c>
       <c r="K6" s="2">
@@ -3926,31 +3934,31 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3200.0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>6.0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>15.0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>7.0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <v>9.0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>22.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>350.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>80.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <v>6000.0</v>
       </c>
       <c r="K7" s="2">
@@ -3961,70 +3969,70 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -4108,74 +4116,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>42</v>
+      <c r="I1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2000.0</v>
       </c>
-      <c r="C2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>100.0</v>
       </c>
-      <c r="I2" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="J2" s="16">
+      <c r="I2" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J2" s="17">
         <v>2.0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>1000.0</v>
       </c>
       <c r="L2" s="2">
@@ -4186,34 +4194,34 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2200.0</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="C3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>200.0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>6.0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="17">
         <v>3.0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <v>2000.0</v>
       </c>
       <c r="L3" s="2">
@@ -4224,34 +4232,34 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2400.0</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="C4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>300.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>7.0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>4.0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>3000.0</v>
       </c>
       <c r="L4" s="2">
@@ -4262,34 +4270,34 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2600.0</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>400.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>8.0</v>
       </c>
-      <c r="J5" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="J5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="K5" s="15">
         <v>4000.0</v>
       </c>
       <c r="L5" s="2">
@@ -4300,34 +4308,34 @@
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2800.0</v>
       </c>
-      <c r="C6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="C6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="16">
         <v>18.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>500.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>9.0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="17">
         <v>6.0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <v>5000.0</v>
       </c>
       <c r="L6" s="2">
@@ -4338,34 +4346,34 @@
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3000.0</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="C7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="16">
         <v>20.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>600.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>10.0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <v>7.0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>6000.0</v>
       </c>
       <c r="L7" s="2">
@@ -4376,75 +4384,75 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -794,19 +794,19 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="16">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="16">
         <v>10.0</v>
       </c>
       <c r="F2" s="16">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G2" s="16">
         <v>10.0</v>
       </c>
       <c r="H2" s="15">
-        <v>1000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="I2" s="2">
         <v>1.0</v>
@@ -826,19 +826,19 @@
         <v>4.0</v>
       </c>
       <c r="D3" s="16">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" s="16">
         <v>9.0</v>
       </c>
       <c r="F3" s="16">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G3" s="16">
         <v>12.0</v>
       </c>
       <c r="H3" s="15">
-        <v>2000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I3" s="2">
         <v>2.0</v>
@@ -858,19 +858,19 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" s="16">
         <v>8.0</v>
       </c>
       <c r="F4" s="16">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G4" s="16">
         <v>14.0</v>
       </c>
       <c r="H4" s="15">
-        <v>3000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="I4" s="2">
         <v>4.0</v>
@@ -890,19 +890,19 @@
         <v>5.0</v>
       </c>
       <c r="D5" s="16">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" s="16">
         <v>7.0</v>
       </c>
       <c r="F5" s="16">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" s="16">
         <v>16.0</v>
       </c>
       <c r="H5" s="15">
-        <v>4000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I5" s="2">
         <v>6.0</v>
@@ -922,19 +922,19 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" s="16">
         <v>6.0</v>
       </c>
       <c r="F6" s="16">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" s="16">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="15">
-        <v>5000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="I6" s="2">
         <v>8.0</v>
@@ -954,19 +954,19 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="16">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" s="16">
         <v>5.0</v>
       </c>
       <c r="F7" s="16">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G7" s="16">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="18">
-        <v>6000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="I7" s="2">
         <v>10.0</v>
@@ -1159,10 +1159,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D2" s="15">
         <v>1000.0</v>
@@ -1174,13 +1174,13 @@
         <v>1000.0</v>
       </c>
       <c r="G2" s="15">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H2" s="15">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I2" s="15">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J2" s="15">
         <v>500.0</v>
@@ -1189,7 +1189,7 @@
         <v>500.0</v>
       </c>
       <c r="L2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -1200,10 +1200,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="C3" s="15">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D3" s="15">
         <v>2000.0</v>
@@ -1215,22 +1215,22 @@
         <v>2000.0</v>
       </c>
       <c r="G3" s="15">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H3" s="15">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I3" s="15">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="J3" s="15">
         <v>1000.0</v>
       </c>
       <c r="K3" s="15">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L3" s="15">
-        <v>1000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -1241,10 +1241,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>3000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="C4" s="15">
-        <v>3000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D4" s="15">
         <v>3000.0</v>
@@ -1256,22 +1256,22 @@
         <v>3000.0</v>
       </c>
       <c r="G4" s="15">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H4" s="15">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I4" s="15">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J4" s="15">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="K4" s="15">
-        <v>2500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="L4" s="15">
-        <v>2000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -1282,10 +1282,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>4000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="C5" s="15">
-        <v>4000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="D5" s="15">
         <v>4000.0</v>
@@ -1297,22 +1297,22 @@
         <v>4000.0</v>
       </c>
       <c r="G5" s="15">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H5" s="15">
-        <v>3000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="I5" s="15">
-        <v>3000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="J5" s="15">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K5" s="15">
-        <v>3500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L5" s="15">
-        <v>3000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -1323,10 +1323,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C6" s="15">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D6" s="15">
         <v>5000.0</v>
@@ -1338,22 +1338,22 @@
         <v>5000.0</v>
       </c>
       <c r="G6" s="15">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H6" s="15">
-        <v>4000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="I6" s="15">
-        <v>4000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="J6" s="15">
         <v>4000.0</v>
       </c>
       <c r="K6" s="15">
-        <v>4500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="L6" s="15">
-        <v>4000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1364,10 +1364,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="C7" s="15">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D7" s="15">
         <v>6000.0</v>
@@ -1379,22 +1379,22 @@
         <v>6000.0</v>
       </c>
       <c r="G7" s="15">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="H7" s="15">
-        <v>5000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="I7" s="15">
-        <v>5000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="J7" s="15">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="K7" s="15">
         <v>6000.0</v>
       </c>
       <c r="L7" s="15">
-        <v>5000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1405,10 +1405,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15">
-        <v>7000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="C8" s="15">
-        <v>7000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="D8" s="15">
         <v>7000.0</v>
@@ -1420,20 +1420,22 @@
         <v>7000.0</v>
       </c>
       <c r="G8" s="15">
-        <v>6000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="H8" s="15">
-        <v>6000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="I8" s="15">
-        <v>6000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="J8" s="15">
-        <v>6000.0</v>
-      </c>
-      <c r="K8" s="14"/>
+        <v>8000.0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>8000.0</v>
+      </c>
       <c r="L8" s="15">
-        <v>6000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1444,10 +1446,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15">
-        <v>8000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="C9" s="15">
-        <v>8000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="D9" s="15">
         <v>8000.0</v>
@@ -1459,20 +1461,22 @@
         <v>8000.0</v>
       </c>
       <c r="G9" s="15">
-        <v>7000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="H9" s="15">
-        <v>7000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="I9" s="15">
-        <v>7000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="J9" s="15">
-        <v>7000.0</v>
-      </c>
-      <c r="K9" s="14"/>
+        <v>10000.0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>10000.0</v>
+      </c>
       <c r="L9" s="15">
-        <v>7000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1483,10 +1487,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15">
-        <v>9000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="C10" s="15">
-        <v>9000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="D10" s="15">
         <v>9000.0</v>
@@ -1498,20 +1502,18 @@
         <v>9000.0</v>
       </c>
       <c r="G10" s="15">
-        <v>8000.0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>8000.0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>8000.0</v>
-      </c>
+        <v>13000.0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="15">
-        <v>8000.0</v>
-      </c>
-      <c r="K10" s="14"/>
+        <v>12000.0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>12000.0</v>
+      </c>
       <c r="L10" s="15">
-        <v>8000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1522,10 +1524,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="C11" s="15">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="D11" s="15">
         <v>10000.0</v>
@@ -1537,20 +1539,18 @@
         <v>10000.0</v>
       </c>
       <c r="G11" s="15">
-        <v>9000.0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9000.0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>9000.0</v>
-      </c>
+        <v>15000.0</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="15">
-        <v>9000.0</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>14000.0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>14000.0</v>
+      </c>
       <c r="L11" s="15">
-        <v>9000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1986,7 +1986,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2">
-        <v>1500.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="6">
@@ -1994,7 +1994,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="2">
-        <v>3000.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="7">
@@ -2002,7 +2002,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2">
-        <v>5000.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2010,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2">
-        <v>7000.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="9">
@@ -2018,7 +2018,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="2">
-        <v>9000.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="10">
@@ -2117,7 +2117,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="16">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C2" s="16">
         <v>0.0</v>
@@ -2132,19 +2132,19 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="17">
         <v>5.0</v>
       </c>
-      <c r="H2" s="17">
-        <v>3.0</v>
-      </c>
       <c r="I2" s="17">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J2" s="17">
         <v>10.0</v>
       </c>
       <c r="K2" s="15">
-        <v>1000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L2" s="2">
         <v>1.0</v>
@@ -2155,7 +2155,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="16">
-        <v>2200.0</v>
+        <v>3400.0</v>
       </c>
       <c r="C3" s="16">
         <v>0.0</v>
@@ -2170,19 +2170,19 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="16">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" s="17">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" s="17">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="J3" s="17">
         <v>12.0</v>
       </c>
       <c r="K3" s="15">
-        <v>2000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="L3" s="2">
         <v>2.0</v>
@@ -2193,7 +2193,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="16">
-        <v>2400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="C4" s="16">
         <v>0.0</v>
@@ -2208,19 +2208,19 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="16">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" s="17">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="I4" s="17">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="J4" s="17">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="K4" s="15">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L4" s="2">
         <v>4.0</v>
@@ -2231,7 +2231,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="16">
-        <v>2600.0</v>
+        <v>4200.0</v>
       </c>
       <c r="C5" s="16">
         <v>0.0</v>
@@ -2246,19 +2246,19 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="16">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="17">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="I5" s="17">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="J5" s="17">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="K5" s="15">
-        <v>4000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="L5" s="2">
         <v>6.0</v>
@@ -2269,7 +2269,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="16">
-        <v>2800.0</v>
+        <v>4600.0</v>
       </c>
       <c r="C6" s="16">
         <v>0.0</v>
@@ -2284,19 +2284,19 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="17">
         <v>17.0</v>
       </c>
-      <c r="H6" s="17">
-        <v>12.0</v>
-      </c>
       <c r="I6" s="17">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="J6" s="17">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K6" s="15">
-        <v>5000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="L6" s="2">
         <v>8.0</v>
@@ -2307,7 +2307,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="16">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="C7" s="16">
         <v>0.0</v>
@@ -2322,19 +2322,19 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="16">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="17">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="I7" s="17">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="J7" s="17">
         <v>25.0</v>
       </c>
       <c r="K7" s="18">
-        <v>6000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="L7" s="2">
         <v>10.0</v>
@@ -2490,6 +2490,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="10" max="10" width="17.25"/>
     <col customWidth="1" min="11" max="11" width="12.0"/>
     <col customWidth="1" min="12" max="12" width="13.0"/>
   </cols>
@@ -2540,31 +2541,31 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="F2" s="16">
         <v>10.0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="G2" s="16">
         <v>10.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>15.0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>5.0</v>
       </c>
       <c r="H2" s="17">
         <v>2.0</v>
       </c>
       <c r="I2" s="17">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" s="17">
         <v>70.0</v>
       </c>
       <c r="K2" s="15">
-        <v>500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="L2" s="2">
         <v>1.0</v>
@@ -2578,31 +2579,31 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="16">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="E3" s="16">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" s="16">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" s="16">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" s="17">
-        <v>2.0</v>
+        <v>1.6</v>
       </c>
       <c r="I3" s="17">
-        <v>12.0</v>
+        <v>90.0</v>
       </c>
       <c r="J3" s="17">
         <v>70.0</v>
       </c>
       <c r="K3" s="15">
-        <v>1000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L3" s="2">
         <v>2.0</v>
@@ -2616,31 +2617,31 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="E4" s="16">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" s="16">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" s="16">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" s="17">
-        <v>2.0</v>
+        <v>1.2</v>
       </c>
       <c r="I4" s="17">
-        <v>15.0</v>
+        <v>100.0</v>
       </c>
       <c r="J4" s="17">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="K4" s="15">
-        <v>1500.0</v>
+        <v>7000.0</v>
       </c>
       <c r="L4" s="2">
         <v>4.0</v>
@@ -2654,31 +2655,31 @@
         <v>2600.0</v>
       </c>
       <c r="C5" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="16">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="E5" s="16">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="16">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" s="16">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="17">
         <v>1.0</v>
       </c>
       <c r="I5" s="17">
-        <v>18.0</v>
+        <v>110.0</v>
       </c>
       <c r="J5" s="17">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="K5" s="15">
-        <v>2000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="L5" s="2">
         <v>6.0</v>
@@ -2692,31 +2693,31 @@
         <v>2800.0</v>
       </c>
       <c r="C6" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" s="16">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" s="16">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G6" s="16">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="17">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="17">
-        <v>22.0</v>
+        <v>120.0</v>
       </c>
       <c r="J6" s="17">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
       <c r="K6" s="15">
-        <v>2500.0</v>
+        <v>9000.0</v>
       </c>
       <c r="L6" s="2">
         <v>8.0</v>
@@ -2730,31 +2731,31 @@
         <v>3000.0</v>
       </c>
       <c r="C7" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>26.0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="16">
         <v>5.0</v>
       </c>
-      <c r="D7" s="16">
-        <v>15.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>12.0</v>
-      </c>
       <c r="G7" s="16">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="17">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="17">
-        <v>26.0</v>
+        <v>130.0</v>
       </c>
       <c r="J7" s="17">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
       <c r="K7" s="18">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L7" s="2">
         <v>10.0</v>
@@ -2767,7 +2768,7 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -2960,25 +2961,25 @@
         <v>3.0</v>
       </c>
       <c r="D2" s="16">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="16">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="G2" s="16">
-        <v>5.0</v>
-      </c>
       <c r="H2" s="17">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="I2" s="17">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J2" s="15">
-        <v>1000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="K2" s="2">
         <v>1.0</v>
@@ -2995,25 +2996,25 @@
         <v>3.0</v>
       </c>
       <c r="D3" s="16">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E3" s="16">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" s="16">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G3" s="16">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" s="17">
-        <v>13.0</v>
+        <v>35.0</v>
       </c>
       <c r="I3" s="17">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J3" s="15">
-        <v>2000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="K3" s="2">
         <v>2.0</v>
@@ -3030,25 +3031,25 @@
         <v>4.0</v>
       </c>
       <c r="D4" s="16">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E4" s="16">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" s="16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G4" s="16">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" s="17">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="I4" s="17">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" s="15">
-        <v>3000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="K4" s="2">
         <v>4.0</v>
@@ -3065,25 +3066,25 @@
         <v>4.0</v>
       </c>
       <c r="D5" s="16">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="E5" s="16">
         <v>6.0</v>
       </c>
       <c r="F5" s="16">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" s="16">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="17">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="I5" s="17">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" s="15">
-        <v>4000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="K5" s="2">
         <v>6.0</v>
@@ -3100,7 +3101,7 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="16">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="E6" s="16">
         <v>5.0</v>
@@ -3109,16 +3110,16 @@
         <v>8.0</v>
       </c>
       <c r="G6" s="16">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="17">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="I6" s="17">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="15">
-        <v>5000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K6" s="2">
         <v>8.0</v>
@@ -3135,25 +3136,25 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="16">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" s="16">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" s="16">
         <v>7.0</v>
       </c>
       <c r="G7" s="16">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="17">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="I7" s="17">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="18">
-        <v>6000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="K7" s="2">
         <v>10.0</v>
@@ -3348,31 +3349,31 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="16">
-        <v>2000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C2" s="16">
         <v>4.0</v>
       </c>
       <c r="D2" s="16">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="E2" s="16">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" s="16">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" s="16">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="H2" s="17">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="I2" s="17">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" s="15">
-        <v>1000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="K2" s="2">
         <v>1.0</v>
@@ -3383,31 +3384,31 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="16">
-        <v>2200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="C3" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="16">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="E3" s="16">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" s="16">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" s="16">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H3" s="17">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="I3" s="17">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="J3" s="15">
-        <v>2000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="K3" s="2">
         <v>2.0</v>
@@ -3418,31 +3419,31 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="16">
-        <v>2400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="C4" s="16">
         <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="E4" s="16">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" s="16">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" s="16">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="H4" s="17">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="I4" s="17">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="15">
-        <v>3000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K4" s="2">
         <v>4.0</v>
@@ -3458,28 +3459,28 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" s="16">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" s="16">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F5" s="16">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" s="16">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="H5" s="17">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="I5" s="17">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="15">
-        <v>4000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="K5" s="2">
         <v>6.0</v>
@@ -3498,25 +3499,25 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="E6" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" s="16">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" s="16">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="H6" s="17">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="I6" s="17">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="15">
-        <v>5000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="K6" s="2">
         <v>8.0</v>
@@ -3529,31 +3530,31 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="16">
-        <v>3200.0</v>
+        <v>3500.0</v>
       </c>
       <c r="C7" s="16">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="16">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" s="16">
         <v>5.0</v>
       </c>
       <c r="F7" s="16">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="16">
         <v>30.0</v>
       </c>
       <c r="H7" s="17">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="I7" s="17">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="18">
-        <v>6000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="K7" s="2">
         <v>10.0</v>
@@ -3763,16 +3764,16 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>9.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12.0</v>
       </c>
       <c r="F2" s="16">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G2" s="16">
         <v>10.0</v>
@@ -3781,10 +3782,10 @@
         <v>100.0</v>
       </c>
       <c r="I2" s="17">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="J2" s="15">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="K2" s="2">
         <v>1.0</v>
@@ -3798,16 +3799,16 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="E3" s="16">
         <v>11.0</v>
       </c>
-      <c r="E3" s="16">
-        <v>9.0</v>
-      </c>
       <c r="F3" s="16">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" s="16">
         <v>12.0</v>
@@ -3816,10 +3817,10 @@
         <v>150.0</v>
       </c>
       <c r="I3" s="17">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
       <c r="J3" s="15">
-        <v>2000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="K3" s="2">
         <v>2.0</v>
@@ -3833,16 +3834,16 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" s="16">
+        <v>17.0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="16">
         <v>12.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>11.0</v>
       </c>
       <c r="G4" s="16">
         <v>14.0</v>
@@ -3851,10 +3852,10 @@
         <v>200.0</v>
       </c>
       <c r="I4" s="17">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="J4" s="15">
-        <v>3000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="K4" s="2">
         <v>4.0</v>
@@ -3868,19 +3869,19 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" s="16">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="E5" s="16">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" s="16">
         <v>10.0</v>
       </c>
       <c r="G5" s="16">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="17">
         <v>250.0</v>
@@ -3889,7 +3890,7 @@
         <v>70.0</v>
       </c>
       <c r="J5" s="15">
-        <v>4000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="K5" s="2">
         <v>6.0</v>
@@ -3903,28 +3904,28 @@
         <v>3000.0</v>
       </c>
       <c r="C6" s="16">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" s="16">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="E6" s="16">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" s="16">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G6" s="16">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="17">
         <v>300.0</v>
       </c>
       <c r="I6" s="17">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="J6" s="15">
-        <v>5000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="K6" s="2">
         <v>8.0</v>
@@ -3938,10 +3939,10 @@
         <v>3200.0</v>
       </c>
       <c r="C7" s="16">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="16">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" s="16">
         <v>7.0</v>
@@ -3950,16 +3951,16 @@
         <v>9.0</v>
       </c>
       <c r="G7" s="16">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="17">
         <v>350.0</v>
       </c>
       <c r="I7" s="17">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="J7" s="18">
-        <v>6000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K7" s="2">
         <v>10.0</v>
@@ -3970,7 +3971,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -4157,7 +4158,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="16">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C2" s="16">
         <v>0.0</v>
@@ -4181,10 +4182,10 @@
         <v>5.0</v>
       </c>
       <c r="J2" s="17">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K2" s="15">
-        <v>1000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="L2" s="2">
         <v>1.0</v>
@@ -4195,7 +4196,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="16">
-        <v>2200.0</v>
+        <v>3400.0</v>
       </c>
       <c r="C3" s="16">
         <v>0.0</v>
@@ -4213,16 +4214,16 @@
         <v>12.0</v>
       </c>
       <c r="H3" s="17">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="I3" s="17">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" s="17">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K3" s="15">
-        <v>2000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L3" s="2">
         <v>2.0</v>
@@ -4233,7 +4234,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="16">
-        <v>2400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="C4" s="16">
         <v>0.0</v>
@@ -4251,16 +4252,16 @@
         <v>14.0</v>
       </c>
       <c r="H4" s="17">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="I4" s="17">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="J4" s="17">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K4" s="15">
-        <v>3000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="L4" s="2">
         <v>4.0</v>
@@ -4271,7 +4272,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="16">
-        <v>2600.0</v>
+        <v>4200.0</v>
       </c>
       <c r="C5" s="16">
         <v>0.0</v>
@@ -4289,16 +4290,16 @@
         <v>16.0</v>
       </c>
       <c r="H5" s="17">
-        <v>400.0</v>
+        <v>700.0</v>
       </c>
       <c r="I5" s="17">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="J5" s="17">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" s="15">
-        <v>4000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="L5" s="2">
         <v>6.0</v>
@@ -4309,7 +4310,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="16">
-        <v>2800.0</v>
+        <v>4600.0</v>
       </c>
       <c r="C6" s="16">
         <v>0.0</v>
@@ -4324,19 +4325,19 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="16">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="17">
-        <v>500.0</v>
+        <v>900.0</v>
       </c>
       <c r="I6" s="17">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="J6" s="17">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="K6" s="15">
-        <v>5000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="L6" s="2">
         <v>8.0</v>
@@ -4347,7 +4348,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="16">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="C7" s="16">
         <v>0.0</v>
@@ -4362,19 +4363,19 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="16">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="17">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I7" s="17">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="J7" s="17">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="K7" s="18">
-        <v>6000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="L7" s="2">
         <v>10.0</v>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="8"/>
     </row>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -1159,37 +1159,37 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D2" s="15">
-        <v>1000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="E2" s="15">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="F2" s="15">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G2" s="15">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H2" s="15">
         <v>1000.0</v>
       </c>
       <c r="I2" s="15">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J2" s="15">
-        <v>500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="K2" s="15">
-        <v>500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="L2" s="15">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -1200,37 +1200,37 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>4000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="C3" s="15">
-        <v>4000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="D3" s="15">
-        <v>2000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="E3" s="15">
-        <v>2000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F3" s="15">
-        <v>2000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="G3" s="15">
-        <v>2000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="H3" s="15">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I3" s="15">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J3" s="15">
-        <v>1000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K3" s="15">
-        <v>1000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L3" s="15">
-        <v>4000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -1241,37 +1241,37 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="C4" s="15">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D4" s="15">
-        <v>3000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="E4" s="15">
-        <v>3000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="F4" s="15">
-        <v>3000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="G4" s="15">
-        <v>3000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="H4" s="15">
-        <v>5000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="I4" s="15">
-        <v>5000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="J4" s="15">
-        <v>1500.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K4" s="15">
-        <v>1500.0</v>
+        <v>15000.0</v>
       </c>
       <c r="L4" s="15">
-        <v>6000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -1282,37 +1282,37 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>8000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="C5" s="15">
-        <v>8000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="D5" s="15">
-        <v>4000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="E5" s="15">
-        <v>4000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="F5" s="15">
-        <v>4000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="G5" s="15">
-        <v>4000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="H5" s="15">
-        <v>7000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="I5" s="15">
-        <v>7000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J5" s="15">
-        <v>2000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="K5" s="15">
-        <v>2000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="L5" s="15">
-        <v>8000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -1323,37 +1323,37 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15">
-        <v>10000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="C6" s="15">
-        <v>10000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="D6" s="15">
-        <v>5000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="E6" s="15">
-        <v>5000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="F6" s="15">
-        <v>5000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G6" s="15">
-        <v>5000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="H6" s="15">
-        <v>9000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="I6" s="15">
-        <v>9000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="J6" s="15">
-        <v>4000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="K6" s="15">
-        <v>4000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="L6" s="15">
-        <v>10000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1364,37 +1364,37 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15">
-        <v>12000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="C7" s="15">
-        <v>12000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="D7" s="15">
-        <v>6000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="E7" s="15">
-        <v>6000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="F7" s="15">
-        <v>6000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="G7" s="15">
-        <v>7000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="H7" s="15">
-        <v>11000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="I7" s="15">
-        <v>11000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J7" s="15">
-        <v>6000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="K7" s="15">
-        <v>6000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="L7" s="15">
-        <v>12000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1405,37 +1405,37 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15">
-        <v>14000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="C8" s="15">
-        <v>14000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="D8" s="15">
-        <v>7000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="E8" s="15">
-        <v>7000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="F8" s="15">
-        <v>7000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="G8" s="15">
-        <v>9000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="H8" s="15">
-        <v>13000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="I8" s="15">
-        <v>13000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="J8" s="15">
-        <v>8000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="K8" s="15">
-        <v>8000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="L8" s="15">
-        <v>14000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1446,37 +1446,37 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15">
-        <v>16000.0</v>
+        <v>42000.0</v>
       </c>
       <c r="C9" s="15">
-        <v>16000.0</v>
+        <v>42000.0</v>
       </c>
       <c r="D9" s="15">
-        <v>8000.0</v>
+        <v>42000.0</v>
       </c>
       <c r="E9" s="15">
-        <v>8000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F9" s="15">
-        <v>8000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="G9" s="15">
-        <v>11000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="H9" s="15">
-        <v>15000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="I9" s="15">
-        <v>15000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="J9" s="15">
-        <v>10000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="K9" s="15">
-        <v>10000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="L9" s="15">
-        <v>16000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1487,33 +1487,33 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15">
-        <v>18000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="C10" s="15">
-        <v>18000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="D10" s="15">
-        <v>9000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="E10" s="15">
-        <v>9000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="F10" s="15">
-        <v>9000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="G10" s="15">
-        <v>13000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15">
-        <v>12000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="K10" s="15">
-        <v>12000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="L10" s="15">
-        <v>18000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1524,33 +1524,33 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15">
-        <v>20000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="C11" s="15">
-        <v>20000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="D11" s="15">
-        <v>10000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E11" s="15">
-        <v>10000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="F11" s="15">
-        <v>10000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="G11" s="15">
-        <v>15000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15">
-        <v>14000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="K11" s="15">
-        <v>14000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="L11" s="15">
-        <v>20000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -2559,7 +2559,7 @@
         <v>2.0</v>
       </c>
       <c r="I2" s="17">
-        <v>80.0</v>
+        <v>500.0</v>
       </c>
       <c r="J2" s="17">
         <v>70.0</v>
@@ -2597,7 +2597,7 @@
         <v>1.6</v>
       </c>
       <c r="I3" s="17">
-        <v>90.0</v>
+        <v>550.0</v>
       </c>
       <c r="J3" s="17">
         <v>70.0</v>
@@ -2635,7 +2635,7 @@
         <v>1.2</v>
       </c>
       <c r="I4" s="17">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="J4" s="17">
         <v>70.0</v>
@@ -2673,7 +2673,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="17">
-        <v>110.0</v>
+        <v>650.0</v>
       </c>
       <c r="J5" s="17">
         <v>70.0</v>
@@ -2711,7 +2711,7 @@
         <v>0.8</v>
       </c>
       <c r="I6" s="17">
-        <v>120.0</v>
+        <v>700.0</v>
       </c>
       <c r="J6" s="17">
         <v>70.0</v>
@@ -2749,7 +2749,7 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="17">
-        <v>130.0</v>
+        <v>750.0</v>
       </c>
       <c r="J7" s="17">
         <v>70.0</v>
@@ -2973,7 +2973,7 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="17">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="I2" s="17">
         <v>3.0</v>
@@ -3008,7 +3008,7 @@
         <v>12.0</v>
       </c>
       <c r="H3" s="17">
-        <v>35.0</v>
+        <v>70.0</v>
       </c>
       <c r="I3" s="17">
         <v>3.0</v>
@@ -3043,7 +3043,7 @@
         <v>14.0</v>
       </c>
       <c r="H4" s="17">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="I4" s="17">
         <v>2.0</v>
@@ -3078,7 +3078,7 @@
         <v>16.0</v>
       </c>
       <c r="H5" s="17">
-        <v>45.0</v>
+        <v>90.0</v>
       </c>
       <c r="I5" s="17">
         <v>2.0</v>
@@ -3113,7 +3113,7 @@
         <v>20.0</v>
       </c>
       <c r="H6" s="17">
-        <v>55.0</v>
+        <v>100.0</v>
       </c>
       <c r="I6" s="17">
         <v>1.0</v>
@@ -3148,7 +3148,7 @@
         <v>25.0</v>
       </c>
       <c r="H7" s="17">
-        <v>60.0</v>
+        <v>120.0</v>
       </c>
       <c r="I7" s="17">
         <v>1.0</v>
@@ -3367,7 +3367,7 @@
         <v>20.0</v>
       </c>
       <c r="H2" s="17">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="I2" s="17">
         <v>2.0</v>
@@ -3402,7 +3402,7 @@
         <v>22.0</v>
       </c>
       <c r="H3" s="17">
-        <v>35.0</v>
+        <v>90.0</v>
       </c>
       <c r="I3" s="17">
         <v>2.0</v>
@@ -3437,7 +3437,7 @@
         <v>24.0</v>
       </c>
       <c r="H4" s="17">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="I4" s="17">
         <v>1.0</v>
@@ -3474,7 +3474,7 @@
         <v>26.0</v>
       </c>
       <c r="H5" s="17">
-        <v>45.0</v>
+        <v>110.0</v>
       </c>
       <c r="I5" s="17">
         <v>1.0</v>
@@ -3511,7 +3511,7 @@
         <v>28.0</v>
       </c>
       <c r="H6" s="17">
-        <v>50.0</v>
+        <v>120.0</v>
       </c>
       <c r="I6" s="17">
         <v>1.0</v>
@@ -3548,7 +3548,7 @@
         <v>30.0</v>
       </c>
       <c r="H7" s="17">
-        <v>60.0</v>
+        <v>140.0</v>
       </c>
       <c r="I7" s="17">
         <v>1.0</v>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Level_Name</t>
   </si>
@@ -133,15 +133,6 @@
     <t>MoveSpeed</t>
   </si>
   <si>
-    <t>Max_WorkCount</t>
-  </si>
-  <si>
-    <t>Min_Refresh_Delay</t>
-  </si>
-  <si>
-    <t>Max_Refresh_Delay</t>
-  </si>
-  <si>
     <t>Def</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>Upgrade_Cost</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Repair_Delay</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
   </si>
   <si>
     <t>Level_Type_Def_Buff</t>
-  </si>
-  <si>
-    <t>NextLevel_WorkCount</t>
   </si>
 </sst>
 </file>
@@ -764,24 +749,10 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -794,26 +765,13 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="16">
         <v>10.0</v>
       </c>
-      <c r="F2" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="E2" s="15">
         <v>9000.0</v>
       </c>
-      <c r="I2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>3.0</v>
-      </c>
+      <c r="F2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -826,26 +784,13 @@
         <v>4.0</v>
       </c>
       <c r="D3" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>11.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="15">
+      <c r="E3" s="15">
         <v>10000.0</v>
       </c>
-      <c r="I3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>4.0</v>
-      </c>
+      <c r="F3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -858,26 +803,13 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="E4" s="15">
         <v>11000.0</v>
       </c>
-      <c r="I4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>4.0</v>
-      </c>
+      <c r="F4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -890,26 +822,13 @@
         <v>5.0</v>
       </c>
       <c r="D5" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="E5" s="15">
         <v>12000.0</v>
       </c>
-      <c r="I5" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>5.0</v>
-      </c>
+      <c r="F5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -922,26 +841,12 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="E6" s="15">
         <v>13000.0</v>
       </c>
-      <c r="I6" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5.0</v>
-      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -954,26 +859,12 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="E7" s="18">
         <v>15000.0</v>
       </c>
-      <c r="I7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2087,29 +1978,17 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -2123,31 +2002,19 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>5.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>4.0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="G2" s="17">
         <v>10.0</v>
       </c>
-      <c r="K2" s="15">
+      <c r="H2" s="15">
         <v>6000.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2161,31 +2028,19 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>8.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>8.0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="G3" s="17">
         <v>12.0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="H3" s="15">
         <v>8000.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2199,31 +2054,19 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>11.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>12.0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="G4" s="17">
         <v>14.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="H4" s="15">
         <v>10000.0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2237,31 +2080,19 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>14.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>16.0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="G5" s="17">
         <v>16.0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="H5" s="15">
         <v>12000.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -2275,31 +2106,19 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>17.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>20.0</v>
       </c>
-      <c r="J6" s="17">
+      <c r="G6" s="17">
         <v>20.0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="H6" s="15">
         <v>14000.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -2313,31 +2132,19 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>20.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>24.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="G7" s="17">
         <v>25.0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="H7" s="18">
         <v>16000.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -2347,12 +2154,9 @@
       <c r="B8" s="19"/>
       <c r="C8" s="16"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9">
@@ -2362,12 +2166,9 @@
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
@@ -2377,12 +2178,9 @@
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11">
@@ -2392,12 +2190,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="16"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12">
@@ -2407,12 +2202,9 @@
       <c r="B12" s="19"/>
       <c r="C12" s="16"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13">
@@ -2508,29 +2300,17 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="E1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -2544,31 +2324,19 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F2" s="16">
         <v>10.0</v>
       </c>
-      <c r="G2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>2.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>500.0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="G2" s="17">
         <v>70.0</v>
       </c>
-      <c r="K2" s="15">
+      <c r="H2" s="15">
         <v>5000.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2582,31 +2350,19 @@
         <v>4.0</v>
       </c>
       <c r="D3" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>1.6</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>550.0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="G3" s="17">
         <v>70.0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="H3" s="15">
         <v>6000.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2620,31 +2376,19 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>1.2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>600.0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="G4" s="17">
         <v>70.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="H4" s="15">
         <v>7000.0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2658,31 +2402,19 @@
         <v>5.0</v>
       </c>
       <c r="D5" s="16">
-        <v>22.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>1.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>650.0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="G5" s="17">
         <v>70.0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="H5" s="15">
         <v>8000.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -2696,31 +2428,19 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>0.8</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>700.0</v>
       </c>
-      <c r="J6" s="17">
+      <c r="G6" s="17">
         <v>70.0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="H6" s="15">
         <v>9000.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -2734,31 +2454,19 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="16">
-        <v>26.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>0.6</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>750.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="G7" s="17">
         <v>70.0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="H7" s="18">
         <v>10000.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -2928,26 +2636,14 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -2963,26 +2659,14 @@
       <c r="D2" s="16">
         <v>10.0</v>
       </c>
-      <c r="E2" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>60.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>3.0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="G2" s="15">
         <v>7000.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2998,26 +2682,14 @@
       <c r="D3" s="16">
         <v>12.0</v>
       </c>
-      <c r="E3" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>11.0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>70.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>3.0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="G3" s="15">
         <v>9000.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3033,26 +2705,14 @@
       <c r="D4" s="16">
         <v>14.0</v>
       </c>
-      <c r="E4" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>14.0</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>80.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>2.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="G4" s="15">
         <v>11000.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3068,26 +2728,14 @@
       <c r="D5" s="16">
         <v>16.0</v>
       </c>
-      <c r="E5" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>90.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>2.0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="G5" s="15">
         <v>13000.0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -3101,28 +2749,16 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>100.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>1.0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="G6" s="15">
         <v>15000.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -3136,28 +2772,16 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>120.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>1.0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="G7" s="18">
         <v>18000.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -3167,11 +2791,9 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
@@ -3181,11 +2803,9 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
@@ -3195,11 +2815,9 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
@@ -3209,11 +2827,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
@@ -3223,11 +2839,9 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3322,26 +2936,14 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -3355,28 +2957,16 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="16">
-        <v>14.0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="G2" s="16">
         <v>20.0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>80.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>2.0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="G2" s="15">
         <v>9000.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3390,28 +2980,16 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>22.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>90.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>2.0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="G3" s="15">
         <v>12000.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3425,28 +3003,16 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>11.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>24.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>100.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>1.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="G4" s="15">
         <v>15000.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4.0</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -3462,28 +3028,16 @@
         <v>6.0</v>
       </c>
       <c r="D5" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>26.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>110.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>1.0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="G5" s="15">
         <v>18000.0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.0</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -3499,28 +3053,16 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="16">
-        <v>22.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>28.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>120.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>1.0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="G6" s="15">
         <v>21000.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8.0</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -3536,28 +3078,16 @@
         <v>7.0</v>
       </c>
       <c r="D7" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>30.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>140.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>1.0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="G7" s="18">
         <v>24000.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>10.0</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -3734,26 +3264,14 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
+      <c r="E1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -3767,28 +3285,16 @@
         <v>5.0</v>
       </c>
       <c r="D2" s="16">
-        <v>15.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>14.0</v>
-      </c>
-      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>100.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>70.0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="G2" s="15">
         <v>5000.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3802,28 +3308,16 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>11.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>150.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>70.0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="G3" s="15">
         <v>7000.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3837,28 +3331,16 @@
         <v>6.0</v>
       </c>
       <c r="D4" s="16">
-        <v>17.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>200.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>70.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="G4" s="15">
         <v>9000.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3872,28 +3354,16 @@
         <v>6.0</v>
       </c>
       <c r="D5" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>250.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>70.0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="G5" s="15">
         <v>11000.0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -3907,28 +3377,16 @@
         <v>7.0</v>
       </c>
       <c r="D6" s="16">
-        <v>19.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>300.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>70.0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="G6" s="15">
         <v>13000.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -3942,28 +3400,16 @@
         <v>7.0</v>
       </c>
       <c r="D7" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>350.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>70.0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="G7" s="18">
         <v>15000.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -4128,29 +3574,17 @@
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -4164,31 +3598,19 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="16">
         <v>10.0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="E2" s="17">
         <v>100.0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="F2" s="17">
         <v>5.0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="G2" s="17">
         <v>5.0</v>
       </c>
-      <c r="K2" s="15">
+      <c r="H2" s="15">
         <v>8000.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -4202,31 +3624,19 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="16">
         <v>12.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="E3" s="17">
         <v>300.0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="F3" s="17">
         <v>7.0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="G3" s="17">
         <v>7.0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="H3" s="15">
         <v>10000.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -4240,31 +3650,19 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="16">
         <v>14.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="E4" s="17">
         <v>500.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="F4" s="17">
         <v>9.0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="G4" s="17">
         <v>9.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="H4" s="15">
         <v>12000.0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -4278,31 +3676,19 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="16">
         <v>16.0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="E5" s="17">
         <v>700.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="F5" s="17">
         <v>11.0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="G5" s="17">
         <v>11.0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="H5" s="15">
         <v>14000.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -4316,31 +3702,19 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="16">
         <v>20.0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="E6" s="17">
         <v>900.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="F6" s="17">
         <v>13.0</v>
       </c>
-      <c r="J6" s="17">
+      <c r="G6" s="17">
         <v>13.0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="H6" s="15">
         <v>16000.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -4354,31 +3728,19 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="16">
         <v>25.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="E7" s="17">
         <v>1200.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="F7" s="17">
         <v>15.0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="G7" s="17">
         <v>15.0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="H7" s="18">
         <v>18000.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="8">

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Level_Name</t>
   </si>
@@ -148,13 +148,16 @@
     <t>Upgrade_Cost</t>
   </si>
   <si>
-    <t>Repair_Delay</t>
-  </si>
-  <si>
     <t>Repair_Amount</t>
   </si>
   <si>
-    <t>Repair_Train_Parsent</t>
+    <t>Repair_Train_WarningParsent</t>
+  </si>
+  <si>
+    <t>Repair_Train_MaxHpPersent</t>
+  </si>
+  <si>
+    <t>Repair_Train_CoolTime</t>
   </si>
   <si>
     <t>Unit_Attack</t>
@@ -2005,13 +2008,13 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="17">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="17">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" s="15">
         <v>6000.0</v>
@@ -2031,13 +2034,13 @@
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" s="17">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="17">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="H3" s="15">
         <v>8000.0</v>
@@ -2057,13 +2060,13 @@
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" s="17">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" s="17">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="H4" s="15">
         <v>10000.0</v>
@@ -2083,13 +2086,13 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" s="17">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" s="17">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="H5" s="15">
         <v>12000.0</v>
@@ -2109,13 +2112,13 @@
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" s="17">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G6" s="17">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="H6" s="15">
         <v>14000.0</v>
@@ -2135,13 +2138,13 @@
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="F7" s="17">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" s="17">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
       <c r="H7" s="18">
         <v>16000.0</v>
@@ -2306,10 +2309,13 @@
       <c r="F1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2321,21 +2327,24 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" s="16">
         <v>10.0</v>
       </c>
       <c r="E2" s="17">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="17">
-        <v>500.0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H2" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I2" s="15">
         <v>5000.0</v>
       </c>
     </row>
@@ -2347,21 +2356,24 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="16">
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="F3" s="17">
-        <v>550.0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H3" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="I3" s="15">
         <v>6000.0</v>
       </c>
     </row>
@@ -2382,12 +2394,15 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="17">
-        <v>600.0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="I4" s="15">
         <v>7000.0</v>
       </c>
     </row>
@@ -2405,15 +2420,18 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="F5" s="17">
-        <v>650.0</v>
-      </c>
-      <c r="G5" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="I5" s="15">
         <v>8000.0</v>
       </c>
     </row>
@@ -2425,21 +2443,24 @@
         <v>2800.0</v>
       </c>
       <c r="C6" s="16">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="16">
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F6" s="17">
-        <v>700.0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="I6" s="15">
         <v>9000.0</v>
       </c>
     </row>
@@ -2451,21 +2472,24 @@
         <v>3000.0</v>
       </c>
       <c r="C7" s="16">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" s="16">
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="17">
-        <v>750.0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>70.0</v>
-      </c>
-      <c r="H7" s="18">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I7" s="18">
         <v>10000.0</v>
       </c>
     </row>
@@ -2637,10 +2661,10 @@
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>41</v>
@@ -2654,7 +2678,7 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="16">
         <v>10.0</v>
@@ -2677,16 +2701,16 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="16">
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="F3" s="17">
-        <v>3.0</v>
+        <v>2.8</v>
       </c>
       <c r="G3" s="15">
         <v>9000.0</v>
@@ -2700,16 +2724,16 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="16">
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="F4" s="17">
-        <v>2.0</v>
+        <v>2.6</v>
       </c>
       <c r="G4" s="15">
         <v>11000.0</v>
@@ -2723,16 +2747,16 @@
         <v>2600.0</v>
       </c>
       <c r="C5" s="16">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="16">
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>90.0</v>
+        <v>75.0</v>
       </c>
       <c r="F5" s="17">
-        <v>2.0</v>
+        <v>2.4</v>
       </c>
       <c r="G5" s="15">
         <v>13000.0</v>
@@ -2746,16 +2770,16 @@
         <v>2800.0</v>
       </c>
       <c r="C6" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" s="16">
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="F6" s="17">
-        <v>1.0</v>
+        <v>2.2</v>
       </c>
       <c r="G6" s="15">
         <v>15000.0</v>
@@ -2769,16 +2793,16 @@
         <v>3000.0</v>
       </c>
       <c r="C7" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" s="16">
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>120.0</v>
+        <v>85.0</v>
       </c>
       <c r="F7" s="17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" s="18">
         <v>18000.0</v>
@@ -2937,10 +2961,10 @@
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>41</v>
@@ -2983,10 +3007,10 @@
         <v>22.0</v>
       </c>
       <c r="E3" s="17">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="F3" s="17">
-        <v>2.0</v>
+        <v>1.8</v>
       </c>
       <c r="G3" s="15">
         <v>12000.0</v>
@@ -3006,10 +3030,10 @@
         <v>24.0</v>
       </c>
       <c r="E4" s="17">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="F4" s="17">
-        <v>1.0</v>
+        <v>1.6</v>
       </c>
       <c r="G4" s="15">
         <v>15000.0</v>
@@ -3031,10 +3055,10 @@
         <v>26.0</v>
       </c>
       <c r="E5" s="17">
-        <v>110.0</v>
+        <v>95.0</v>
       </c>
       <c r="F5" s="17">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="G5" s="15">
         <v>18000.0</v>
@@ -3056,10 +3080,10 @@
         <v>28.0</v>
       </c>
       <c r="E6" s="17">
-        <v>120.0</v>
+        <v>100.0</v>
       </c>
       <c r="F6" s="17">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="15">
         <v>21000.0</v>
@@ -3081,7 +3105,7 @@
         <v>30.0</v>
       </c>
       <c r="E7" s="17">
-        <v>140.0</v>
+        <v>105.0</v>
       </c>
       <c r="F7" s="17">
         <v>1.0</v>
@@ -3265,10 +3289,10 @@
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>41</v>
@@ -3279,7 +3303,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="16">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C2" s="16">
         <v>5.0</v>
@@ -3291,7 +3315,7 @@
         <v>100.0</v>
       </c>
       <c r="F2" s="17">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="G2" s="15">
         <v>5000.0</v>
@@ -3302,22 +3326,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="16">
-        <v>2200.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C3" s="16">
         <v>5.0</v>
       </c>
       <c r="D3" s="16">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" s="17">
         <v>150.0</v>
       </c>
       <c r="F3" s="17">
-        <v>70.0</v>
+        <v>51.0</v>
       </c>
       <c r="G3" s="15">
-        <v>7000.0</v>
+        <v>8000.0</v>
       </c>
     </row>
     <row r="4">
@@ -3325,22 +3349,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="16">
-        <v>2400.0</v>
+        <v>1400.0</v>
       </c>
       <c r="C4" s="16">
         <v>6.0</v>
       </c>
       <c r="D4" s="16">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" s="17">
         <v>200.0</v>
       </c>
       <c r="F4" s="17">
-        <v>70.0</v>
+        <v>52.0</v>
       </c>
       <c r="G4" s="15">
-        <v>9000.0</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="5">
@@ -3348,22 +3372,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="16">
-        <v>2800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="C5" s="16">
         <v>6.0</v>
       </c>
       <c r="D5" s="16">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E5" s="17">
         <v>250.0</v>
       </c>
       <c r="F5" s="17">
-        <v>70.0</v>
+        <v>53.0</v>
       </c>
       <c r="G5" s="15">
-        <v>11000.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="6">
@@ -3371,22 +3395,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="16">
-        <v>3000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="C6" s="16">
         <v>7.0</v>
       </c>
       <c r="D6" s="16">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="E6" s="17">
         <v>300.0</v>
       </c>
       <c r="F6" s="17">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
       <c r="G6" s="15">
-        <v>13000.0</v>
+        <v>14000.0</v>
       </c>
     </row>
     <row r="7">
@@ -3394,92 +3418,52 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="16">
-        <v>3200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C7" s="16">
         <v>7.0</v>
       </c>
       <c r="D7" s="16">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="E7" s="17">
         <v>350.0</v>
       </c>
       <c r="F7" s="17">
-        <v>70.0</v>
+        <v>55.0</v>
       </c>
       <c r="G7" s="18">
-        <v>15000.0</v>
+        <v>16000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
@@ -3575,13 +3559,13 @@
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>41</v>
@@ -3604,10 +3588,10 @@
         <v>100.0</v>
       </c>
       <c r="F2" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" s="15">
         <v>8000.0</v>
@@ -3627,13 +3611,13 @@
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="F3" s="17">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" s="17">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H3" s="15">
         <v>10000.0</v>
@@ -3653,13 +3637,13 @@
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
       <c r="F4" s="17">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" s="17">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H4" s="15">
         <v>12000.0</v>
@@ -3679,13 +3663,13 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
       <c r="F5" s="17">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" s="17">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" s="15">
         <v>14000.0</v>
@@ -3705,13 +3689,13 @@
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="F6" s="17">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" s="17">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" s="15">
         <v>16000.0</v>
@@ -3731,13 +3715,13 @@
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="F7" s="17">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" s="17">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="H7" s="18">
         <v>18000.0</v>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -2342,7 +2342,7 @@
         <v>40.0</v>
       </c>
       <c r="H2" s="2">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="I2" s="15">
         <v>5000.0</v>
@@ -2371,7 +2371,7 @@
         <v>45.0</v>
       </c>
       <c r="H3" s="2">
-        <v>38.0</v>
+        <v>19.0</v>
       </c>
       <c r="I3" s="15">
         <v>6000.0</v>
@@ -2400,7 +2400,7 @@
         <v>50.0</v>
       </c>
       <c r="H4" s="2">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="I4" s="15">
         <v>7000.0</v>
@@ -2429,7 +2429,7 @@
         <v>55.0</v>
       </c>
       <c r="H5" s="2">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" s="15">
         <v>8000.0</v>
@@ -2458,7 +2458,7 @@
         <v>60.0</v>
       </c>
       <c r="H6" s="2">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="I6" s="15">
         <v>9000.0</v>
@@ -2487,7 +2487,7 @@
         <v>65.0</v>
       </c>
       <c r="H7" s="2">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="I7" s="18">
         <v>10000.0</v>

--- a/Train/Assets/_Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/_Data_Level/Level_DataTable.xlsx
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -1053,37 +1053,37 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>4000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>4000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="D2" s="15">
-        <v>4000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E2" s="15">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G2" s="15">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H2" s="15">
         <v>1000.0</v>
       </c>
       <c r="I2" s="15">
-        <v>5000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="J2" s="15">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="K2" s="15">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="15">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -1094,37 +1094,37 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>8000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C3" s="15">
-        <v>8000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D3" s="15">
-        <v>8000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E3" s="15">
-        <v>6000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="F3" s="15">
-        <v>6000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G3" s="15">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H3" s="15">
-        <v>10000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I3" s="15">
-        <v>10000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="J3" s="15">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K3" s="15">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L3" s="15">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -1135,37 +1135,37 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>12000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C4" s="15">
-        <v>12000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D4" s="15">
-        <v>12000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="E4" s="15">
-        <v>9000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="F4" s="15">
-        <v>9000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G4" s="15">
-        <v>15000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H4" s="15">
-        <v>20000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I4" s="15">
-        <v>15000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="J4" s="15">
-        <v>15000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="K4" s="15">
-        <v>15000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="L4" s="15">
-        <v>15000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -1176,37 +1176,37 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>18000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="C5" s="15">
-        <v>18000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D5" s="15">
-        <v>18000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="E5" s="15">
-        <v>12000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F5" s="15">
-        <v>12000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="G5" s="15">
-        <v>20000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H5" s="15">
-        <v>30000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="I5" s="15">
-        <v>20000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="J5" s="15">
-        <v>20000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="K5" s="15">
-        <v>20000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="L5" s="15">
-        <v>20000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -1217,37 +1217,37 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15">
-        <v>24000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="C6" s="15">
-        <v>24000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D6" s="15">
-        <v>24000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E6" s="15">
-        <v>15000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F6" s="15">
-        <v>15000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G6" s="15">
-        <v>25000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H6" s="15">
-        <v>40000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="I6" s="15">
-        <v>25000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J6" s="15">
-        <v>25000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="K6" s="15">
-        <v>25000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="L6" s="15">
-        <v>25000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1258,37 +1258,37 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="C7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="E7" s="15">
-        <v>18000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F7" s="15">
-        <v>18000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="G7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="H7" s="15">
-        <v>50000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="I7" s="15">
-        <v>30000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="J7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="K7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L7" s="15">
-        <v>30000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1299,37 +1299,37 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15">
-        <v>36000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C8" s="15">
-        <v>36000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D8" s="15">
-        <v>36000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="E8" s="15">
-        <v>21000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F8" s="15">
-        <v>21000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="G8" s="15">
-        <v>35000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="H8" s="15">
-        <v>60000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="I8" s="15">
-        <v>35000.0</v>
+        <v>14000.0</v>
       </c>
       <c r="J8" s="15">
-        <v>35000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="K8" s="15">
-        <v>35000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="L8" s="15">
-        <v>35000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1340,37 +1340,37 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15">
-        <v>42000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="C9" s="15">
-        <v>42000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="D9" s="15">
-        <v>42000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="E9" s="15">
-        <v>24000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F9" s="15">
-        <v>24000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="G9" s="15">
-        <v>40000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="H9" s="15">
-        <v>70000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="I9" s="15">
-        <v>40000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="J9" s="15">
-        <v>40000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="K9" s="15">
-        <v>40000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="L9" s="15">
-        <v>40000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1381,33 +1381,35 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15">
-        <v>48000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="C10" s="15">
-        <v>48000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="D10" s="15">
-        <v>48000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="E10" s="15">
-        <v>30000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="F10" s="15">
-        <v>30000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="G10" s="15">
-        <v>45000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>18000.0</v>
+      </c>
       <c r="J10" s="15">
-        <v>45000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="K10" s="15">
-        <v>45000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="L10" s="15">
-        <v>45000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1418,33 +1420,35 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E11" s="15">
-        <v>40000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F11" s="15">
-        <v>40000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="G11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <v>20000.0</v>
+      </c>
       <c r="J11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L11" s="15">
-        <v>60000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1454,16 +1458,35 @@
       <c r="A12" s="14">
         <v>10.0</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>12000.0</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>12000.0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>12000.0</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1472,16 +1495,35 @@
       <c r="A13" s="14">
         <v>11.0</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>14000.0</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="L13" s="1"/>
+      <c r="J13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>14000.0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>14000.0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1490,16 +1532,35 @@
       <c r="A14" s="14">
         <v>12.0</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>16000.0</v>
+      </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="L14" s="1"/>
+      <c r="J14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>16000.0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>16000.0</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1508,16 +1569,35 @@
       <c r="A15" s="14">
         <v>13.0</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>18000.0</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="L15" s="1"/>
+      <c r="J15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>18000.0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>18000.0</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1526,16 +1606,35 @@
       <c r="A16" s="14">
         <v>14.0</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>20000.0</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="L16" s="1"/>
+      <c r="J16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>20000.0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>20000.0</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1544,16 +1643,35 @@
       <c r="A17" s="14">
         <v>15.0</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>22000.0</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>22000.0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>22000.0</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1562,16 +1680,35 @@
       <c r="A18" s="14">
         <v>16.0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>24000.0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>24000.0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>24000.0</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1580,16 +1717,35 @@
       <c r="A19" s="14">
         <v>17.0</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>26000.0</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>26000.0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>26000.0</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1598,16 +1754,35 @@
       <c r="A20" s="14">
         <v>18.0</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>28000.0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>28000.0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>28000.0</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1616,16 +1791,35 @@
       <c r="A21" s="14">
         <v>19.0</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>30000.0</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="J21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>30000.0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>30000.0</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1634,16 +1828,27 @@
       <c r="A22" s="14">
         <v>20.0</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="15">
+        <v>34000.0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>34000.0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>34000.0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>34000.0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>34000.0</v>
+      </c>
+      <c r="G22" s="15"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1652,16 +1857,27 @@
       <c r="A23" s="14">
         <v>21.0</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1670,16 +1886,27 @@
       <c r="A24" s="14">
         <v>22.0</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="15">
+        <v>42000.0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>42000.0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>42000.0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>42000.0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>42000.0</v>
+      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1688,16 +1915,27 @@
       <c r="A25" s="14">
         <v>23.0</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="15">
+        <v>46000.0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>46000.0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>46000.0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>46000.0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>46000.0</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1706,16 +1944,27 @@
       <c r="A26" s="14">
         <v>24.0</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="15">
+        <v>50000.0</v>
+      </c>
+      <c r="C26" s="15">
+        <v>50000.0</v>
+      </c>
+      <c r="D26" s="15">
+        <v>50000.0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>50000.0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>50000.0</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1724,16 +1973,27 @@
       <c r="A27" s="14">
         <v>25.0</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="15">
+        <v>54000.0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>54000.0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>54000.0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>54000.0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>54000.0</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1742,16 +2002,27 @@
       <c r="A28" s="14">
         <v>26.0</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="15">
+        <v>58000.0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>58000.0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>58000.0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>58000.0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>58000.0</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1760,16 +2031,27 @@
       <c r="A29" s="14">
         <v>27.0</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="15">
+        <v>62000.0</v>
+      </c>
+      <c r="C29" s="15">
+        <v>62000.0</v>
+      </c>
+      <c r="D29" s="15">
+        <v>62000.0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>62000.0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>62000.0</v>
+      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1778,16 +2060,27 @@
       <c r="A30" s="14">
         <v>28.0</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="15">
+        <v>66000.0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>66000.0</v>
+      </c>
+      <c r="D30" s="15">
+        <v>66000.0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>66000.0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>66000.0</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -1796,16 +2089,27 @@
       <c r="A31" s="14">
         <v>29.0</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="15">
+        <v>70000.0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>70000.0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>70000.0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>70000.0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>70000.0</v>
+      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2008,13 +2312,13 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="17">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" s="17">
         <v>1.0</v>
       </c>
       <c r="G2" s="17">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" s="15">
         <v>6000.0</v>
@@ -2034,13 +2338,13 @@
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" s="17">
         <v>2.0</v>
       </c>
       <c r="G3" s="17">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" s="15">
         <v>8000.0</v>
@@ -2060,13 +2364,13 @@
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" s="17">
         <v>3.0</v>
       </c>
       <c r="G4" s="17">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" s="15">
         <v>10000.0</v>
@@ -2086,13 +2390,13 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" s="17">
         <v>4.0</v>
       </c>
       <c r="G5" s="17">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="15">
         <v>12000.0</v>
@@ -2112,13 +2416,13 @@
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F6" s="17">
         <v>5.0</v>
       </c>
       <c r="G6" s="17">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="H6" s="15">
         <v>14000.0</v>
@@ -2138,13 +2442,13 @@
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" s="17">
         <v>6.0</v>
       </c>
       <c r="G7" s="17">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="H7" s="18">
         <v>16000.0</v>
@@ -2684,7 +2988,7 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="17">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="F2" s="17">
         <v>3.0</v>
@@ -2707,7 +3011,7 @@
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>65.0</v>
+        <v>90.0</v>
       </c>
       <c r="F3" s="17">
         <v>2.8</v>
@@ -2730,7 +3034,7 @@
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="F4" s="17">
         <v>2.6</v>
@@ -2753,7 +3057,7 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>75.0</v>
+        <v>110.0</v>
       </c>
       <c r="F5" s="17">
         <v>2.4</v>
@@ -2776,7 +3080,7 @@
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
       <c r="F6" s="17">
         <v>2.2</v>
@@ -2799,7 +3103,7 @@
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>85.0</v>
+        <v>130.0</v>
       </c>
       <c r="F7" s="17">
         <v>2.0</v>
@@ -2984,7 +3288,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" s="17">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
       <c r="F2" s="17">
         <v>2.0</v>
@@ -3007,7 +3311,7 @@
         <v>22.0</v>
       </c>
       <c r="E3" s="17">
-        <v>85.0</v>
+        <v>130.0</v>
       </c>
       <c r="F3" s="17">
         <v>1.8</v>
@@ -3030,7 +3334,7 @@
         <v>24.0</v>
       </c>
       <c r="E4" s="17">
-        <v>90.0</v>
+        <v>140.0</v>
       </c>
       <c r="F4" s="17">
         <v>1.6</v>
@@ -3055,7 +3359,7 @@
         <v>26.0</v>
       </c>
       <c r="E5" s="17">
-        <v>95.0</v>
+        <v>150.0</v>
       </c>
       <c r="F5" s="17">
         <v>1.4</v>
@@ -3080,7 +3384,7 @@
         <v>28.0</v>
       </c>
       <c r="E6" s="17">
-        <v>100.0</v>
+        <v>160.0</v>
       </c>
       <c r="F6" s="17">
         <v>1.2</v>
@@ -3105,7 +3409,7 @@
         <v>30.0</v>
       </c>
       <c r="E7" s="17">
-        <v>105.0</v>
+        <v>170.0</v>
       </c>
       <c r="F7" s="17">
         <v>1.0</v>
@@ -3338,7 +3642,7 @@
         <v>150.0</v>
       </c>
       <c r="F3" s="17">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="G3" s="15">
         <v>8000.0</v>
@@ -3361,7 +3665,7 @@
         <v>200.0</v>
       </c>
       <c r="F4" s="17">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="G4" s="15">
         <v>10000.0</v>
@@ -3384,7 +3688,7 @@
         <v>250.0</v>
       </c>
       <c r="F5" s="17">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="G5" s="15">
         <v>12000.0</v>
@@ -3407,7 +3711,7 @@
         <v>300.0</v>
       </c>
       <c r="F6" s="17">
-        <v>54.0</v>
+        <v>70.0</v>
       </c>
       <c r="G6" s="15">
         <v>14000.0</v>
@@ -3430,7 +3734,7 @@
         <v>350.0</v>
       </c>
       <c r="F7" s="17">
-        <v>55.0</v>
+        <v>75.0</v>
       </c>
       <c r="G7" s="18">
         <v>16000.0</v>
@@ -3585,13 +3889,13 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="17">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
       <c r="F2" s="17">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" s="17">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" s="15">
         <v>8000.0</v>
@@ -3611,13 +3915,13 @@
         <v>12.0</v>
       </c>
       <c r="E3" s="17">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="F3" s="17">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="G3" s="17">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" s="15">
         <v>10000.0</v>
@@ -3637,13 +3941,13 @@
         <v>14.0</v>
       </c>
       <c r="E4" s="17">
-        <v>300.0</v>
+        <v>700.0</v>
       </c>
       <c r="F4" s="17">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="G4" s="17">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" s="15">
         <v>12000.0</v>
@@ -3663,13 +3967,13 @@
         <v>16.0</v>
       </c>
       <c r="E5" s="17">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="F5" s="17">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="G5" s="17">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="H5" s="15">
         <v>14000.0</v>
@@ -3689,13 +3993,13 @@
         <v>20.0</v>
       </c>
       <c r="E6" s="17">
-        <v>500.0</v>
+        <v>900.0</v>
       </c>
       <c r="F6" s="17">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="G6" s="17">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="H6" s="15">
         <v>16000.0</v>
@@ -3715,13 +4019,13 @@
         <v>25.0</v>
       </c>
       <c r="E7" s="17">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F7" s="17">
-        <v>14.0</v>
+        <v>60.0</v>
       </c>
       <c r="G7" s="17">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="H7" s="18">
         <v>18000.0</v>
